--- a/data/pca/factorExposure/factorExposure_2016-03-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01174538908840533</v>
+        <v>0.01543702172935923</v>
       </c>
       <c r="C2">
-        <v>-0.05805202815321988</v>
+        <v>0.04059031534859021</v>
       </c>
       <c r="D2">
-        <v>0.04202069192684627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0734414618193988</v>
+      </c>
+      <c r="E2">
+        <v>0.1080691265606896</v>
+      </c>
+      <c r="F2">
+        <v>0.07210141152329944</v>
+      </c>
+      <c r="G2">
+        <v>0.03026188907449868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04197671387286517</v>
+        <v>0.02606199589539278</v>
       </c>
       <c r="C3">
-        <v>-0.1234387543976672</v>
+        <v>0.06838932708604357</v>
       </c>
       <c r="D3">
-        <v>0.08292922519800316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07934447373267578</v>
+      </c>
+      <c r="E3">
+        <v>0.07874732751731926</v>
+      </c>
+      <c r="F3">
+        <v>-0.04668579543815675</v>
+      </c>
+      <c r="G3">
+        <v>0.01090654353489999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06330804878724343</v>
+        <v>0.06182638403048191</v>
       </c>
       <c r="C4">
-        <v>-0.06707803374532459</v>
+        <v>0.06580653081901114</v>
       </c>
       <c r="D4">
-        <v>0.03634177033880281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06896496123287962</v>
+      </c>
+      <c r="E4">
+        <v>0.1063952451955378</v>
+      </c>
+      <c r="F4">
+        <v>0.01739822447768996</v>
+      </c>
+      <c r="G4">
+        <v>0.06716956284428471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04151354014889169</v>
+        <v>0.03847795545208557</v>
       </c>
       <c r="C6">
-        <v>-0.03637087010261639</v>
+        <v>0.02744815522721629</v>
       </c>
       <c r="D6">
-        <v>0.03475948107884094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07268331960307041</v>
+      </c>
+      <c r="E6">
+        <v>0.09313699685109948</v>
+      </c>
+      <c r="F6">
+        <v>0.0123561010607642</v>
+      </c>
+      <c r="G6">
+        <v>0.05222179870684694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02863002774886322</v>
+        <v>0.02249689103985049</v>
       </c>
       <c r="C7">
-        <v>-0.03914126555712211</v>
+        <v>0.03615211644437203</v>
       </c>
       <c r="D7">
-        <v>-0.0007280259617237825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04912220182558593</v>
+      </c>
+      <c r="E7">
+        <v>0.07692527657955761</v>
+      </c>
+      <c r="F7">
+        <v>0.05061658562277119</v>
+      </c>
+      <c r="G7">
+        <v>0.101920163631986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008599911447041536</v>
+        <v>0.007637936793578898</v>
       </c>
       <c r="C8">
-        <v>-0.04162306043246276</v>
+        <v>0.03540383515881729</v>
       </c>
       <c r="D8">
-        <v>0.0283373152511533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04399096295334088</v>
+      </c>
+      <c r="E8">
+        <v>0.06238229581245756</v>
+      </c>
+      <c r="F8">
+        <v>0.01004704734335176</v>
+      </c>
+      <c r="G8">
+        <v>0.03307365397372831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03904530633393087</v>
+        <v>0.04190946865236284</v>
       </c>
       <c r="C9">
-        <v>-0.04725444810968626</v>
+        <v>0.05090114409852912</v>
       </c>
       <c r="D9">
-        <v>0.02071244935666022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05010490425127164</v>
+      </c>
+      <c r="E9">
+        <v>0.08017196424116652</v>
+      </c>
+      <c r="F9">
+        <v>0.03900662755462842</v>
+      </c>
+      <c r="G9">
+        <v>0.07534539666119422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07151951430832411</v>
+        <v>0.09877517615431358</v>
       </c>
       <c r="C10">
-        <v>0.189314353155335</v>
+        <v>-0.2021575245644918</v>
       </c>
       <c r="D10">
-        <v>0.001709474928084387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008003299201652528</v>
+      </c>
+      <c r="E10">
+        <v>0.0378495860685443</v>
+      </c>
+      <c r="F10">
+        <v>0.01426505131893079</v>
+      </c>
+      <c r="G10">
+        <v>0.03882526267729442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04414436806244572</v>
+        <v>0.03843620634164933</v>
       </c>
       <c r="C11">
-        <v>-0.05036072644093187</v>
+        <v>0.04727916992916072</v>
       </c>
       <c r="D11">
-        <v>0.01654546766613606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03505875670766254</v>
+      </c>
+      <c r="E11">
+        <v>0.03309926865239919</v>
+      </c>
+      <c r="F11">
+        <v>0.02687493172203649</v>
+      </c>
+      <c r="G11">
+        <v>0.07084134873552782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0461144273267842</v>
+        <v>0.03997540703160683</v>
       </c>
       <c r="C12">
-        <v>-0.04621835990359943</v>
+        <v>0.04595614414092834</v>
       </c>
       <c r="D12">
-        <v>0.003060936248692009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02974064481266186</v>
+      </c>
+      <c r="E12">
+        <v>0.04352534846143541</v>
+      </c>
+      <c r="F12">
+        <v>0.0281733913904823</v>
+      </c>
+      <c r="G12">
+        <v>0.06577336696359504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01703713651790733</v>
+        <v>0.0155294725969637</v>
       </c>
       <c r="C13">
-        <v>-0.0523159348128737</v>
+        <v>0.04199026979982712</v>
       </c>
       <c r="D13">
-        <v>0.01217472346109582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05897614636922823</v>
+      </c>
+      <c r="E13">
+        <v>0.1129940026294295</v>
+      </c>
+      <c r="F13">
+        <v>0.03859393649732176</v>
+      </c>
+      <c r="G13">
+        <v>0.09389517240798459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01137292473013949</v>
+        <v>0.007602856293038116</v>
       </c>
       <c r="C14">
-        <v>-0.03425008812000199</v>
+        <v>0.03003065889268529</v>
       </c>
       <c r="D14">
-        <v>0.00121332570637885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03358924699664802</v>
+      </c>
+      <c r="E14">
+        <v>0.06657405115196166</v>
+      </c>
+      <c r="F14">
+        <v>0.06049232754354868</v>
+      </c>
+      <c r="G14">
+        <v>0.08270624483202077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001632511881211713</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006563894308262513</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0104514353280792</v>
+      </c>
+      <c r="E15">
+        <v>0.008495967060897853</v>
+      </c>
+      <c r="F15">
+        <v>0.005312510308191552</v>
+      </c>
+      <c r="G15">
+        <v>0.006854441445703655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04167973422259378</v>
+        <v>0.03656079887169891</v>
       </c>
       <c r="C16">
-        <v>-0.04706168977461349</v>
+        <v>0.04413489807350603</v>
       </c>
       <c r="D16">
-        <v>0.005208703901517342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02998047211329797</v>
+      </c>
+      <c r="E16">
+        <v>0.04796620459073555</v>
+      </c>
+      <c r="F16">
+        <v>0.03908928235580023</v>
+      </c>
+      <c r="G16">
+        <v>0.05808811403406206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02803121248656195</v>
+        <v>0.01956093743691064</v>
       </c>
       <c r="C19">
-        <v>-0.06095525440860103</v>
+        <v>0.04513432881368858</v>
       </c>
       <c r="D19">
-        <v>0.09256668192327706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1000450957640519</v>
+      </c>
+      <c r="E19">
+        <v>0.1144304878994261</v>
+      </c>
+      <c r="F19">
+        <v>0.04434052074877202</v>
+      </c>
+      <c r="G19">
+        <v>0.02694889675448561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02107866941935013</v>
+        <v>0.01687738807437152</v>
       </c>
       <c r="C20">
-        <v>-0.04845120168318594</v>
+        <v>0.03993215578957329</v>
       </c>
       <c r="D20">
-        <v>0.01232681655804074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04375765548819934</v>
+      </c>
+      <c r="E20">
+        <v>0.08707655710684109</v>
+      </c>
+      <c r="F20">
+        <v>0.04049419167919963</v>
+      </c>
+      <c r="G20">
+        <v>0.06347001783581993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01513341451993904</v>
+        <v>0.01428445233973506</v>
       </c>
       <c r="C21">
-        <v>-0.05259212097351346</v>
+        <v>0.042991249017355</v>
       </c>
       <c r="D21">
-        <v>0.04037148560592115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07247140900546677</v>
+      </c>
+      <c r="E21">
+        <v>0.1346450974399538</v>
+      </c>
+      <c r="F21">
+        <v>0.06642706030922807</v>
+      </c>
+      <c r="G21">
+        <v>0.09137597258717997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0002735135367358544</v>
+        <v>0.0046457569348558</v>
       </c>
       <c r="C22">
-        <v>-0.01307936205439881</v>
+        <v>0.02981746713677704</v>
       </c>
       <c r="D22">
-        <v>0.02735985988138676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06237141748707723</v>
+      </c>
+      <c r="E22">
+        <v>0.06700414407592806</v>
+      </c>
+      <c r="F22">
+        <v>-0.03159855828839842</v>
+      </c>
+      <c r="G22">
+        <v>0.04677523029760336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0002675563526766479</v>
+        <v>0.004742949790997759</v>
       </c>
       <c r="C23">
-        <v>-0.01307660324454869</v>
+        <v>0.02982189913347107</v>
       </c>
       <c r="D23">
-        <v>0.02728360527494925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0616140473822353</v>
+      </c>
+      <c r="E23">
+        <v>0.06718302126949924</v>
+      </c>
+      <c r="F23">
+        <v>-0.03169019841068112</v>
+      </c>
+      <c r="G23">
+        <v>0.04687138231151673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03890545267350542</v>
+        <v>0.03770795963662942</v>
       </c>
       <c r="C24">
-        <v>-0.04789872532921181</v>
+        <v>0.05214432233212135</v>
       </c>
       <c r="D24">
-        <v>0.01070311138987211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.03137622632101956</v>
+      </c>
+      <c r="E24">
+        <v>0.05186965183459522</v>
+      </c>
+      <c r="F24">
+        <v>0.03904955489888183</v>
+      </c>
+      <c r="G24">
+        <v>0.06880530040879353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05012552497136639</v>
+        <v>0.04510603261755555</v>
       </c>
       <c r="C25">
-        <v>-0.05813315528717314</v>
+        <v>0.05530678689982404</v>
       </c>
       <c r="D25">
-        <v>2.707195562008911e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02771779496222933</v>
+      </c>
+      <c r="E25">
+        <v>0.04355758212885719</v>
+      </c>
+      <c r="F25">
+        <v>0.02965127896841329</v>
+      </c>
+      <c r="G25">
+        <v>0.08133471537271615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01953021230546868</v>
+        <v>0.0175749869162649</v>
       </c>
       <c r="C26">
-        <v>-0.01520435790440764</v>
+        <v>0.01640560514337935</v>
       </c>
       <c r="D26">
-        <v>0.01171646127919401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03289886533314162</v>
+      </c>
+      <c r="E26">
+        <v>0.05713510525408274</v>
+      </c>
+      <c r="F26">
+        <v>0.04498699423611971</v>
+      </c>
+      <c r="G26">
+        <v>0.04816964512870783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08907646075689385</v>
+        <v>0.1354745763487565</v>
       </c>
       <c r="C28">
-        <v>0.2582881317921488</v>
+        <v>-0.2606102054900056</v>
       </c>
       <c r="D28">
-        <v>-0.003025453282621509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02340995427840666</v>
+      </c>
+      <c r="E28">
+        <v>0.05727287032089853</v>
+      </c>
+      <c r="F28">
+        <v>0.02267748182445013</v>
+      </c>
+      <c r="G28">
+        <v>0.05547362631728888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009807858002371375</v>
+        <v>0.008189106444872073</v>
       </c>
       <c r="C29">
-        <v>-0.03044517482577482</v>
+        <v>0.02799780199462963</v>
       </c>
       <c r="D29">
-        <v>-0.005478421598252545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02572319987422433</v>
+      </c>
+      <c r="E29">
+        <v>0.06468564209524977</v>
+      </c>
+      <c r="F29">
+        <v>0.05159636951984542</v>
+      </c>
+      <c r="G29">
+        <v>0.08776415076641796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04749653869626611</v>
+        <v>0.04608400679537817</v>
       </c>
       <c r="C30">
-        <v>-0.05027925488724068</v>
+        <v>0.0566590609658473</v>
       </c>
       <c r="D30">
-        <v>0.08549331262862282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1134164968982648</v>
+      </c>
+      <c r="E30">
+        <v>0.08866503052776656</v>
+      </c>
+      <c r="F30">
+        <v>0.04569028941205919</v>
+      </c>
+      <c r="G30">
+        <v>0.05375604839314483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06385782126377122</v>
+        <v>0.06145238309199062</v>
       </c>
       <c r="C31">
-        <v>-0.04483625316956341</v>
+        <v>0.06028509104672364</v>
       </c>
       <c r="D31">
-        <v>-0.03768772019901766</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008223146950501567</v>
+      </c>
+      <c r="E31">
+        <v>0.07882880297190817</v>
+      </c>
+      <c r="F31">
+        <v>0.008081180027316219</v>
+      </c>
+      <c r="G31">
+        <v>0.07147722205145625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006423943655716443</v>
+        <v>0.01102747513697858</v>
       </c>
       <c r="C32">
-        <v>-0.03763826295882444</v>
+        <v>0.03430624652486404</v>
       </c>
       <c r="D32">
-        <v>0.06124599354876507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06406241586871449</v>
+      </c>
+      <c r="E32">
+        <v>0.06151219571506059</v>
+      </c>
+      <c r="F32">
+        <v>0.05343916314585727</v>
+      </c>
+      <c r="G32">
+        <v>0.06514470845798125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03583078657656281</v>
+        <v>0.02922182396311494</v>
       </c>
       <c r="C33">
-        <v>-0.05819794765324011</v>
+        <v>0.05223887114991961</v>
       </c>
       <c r="D33">
-        <v>0.04474005950213145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07886301231668549</v>
+      </c>
+      <c r="E33">
+        <v>0.09372402064559675</v>
+      </c>
+      <c r="F33">
+        <v>0.04584337776105743</v>
+      </c>
+      <c r="G33">
+        <v>0.1006686436600783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04511822750588537</v>
+        <v>0.04126541606315194</v>
       </c>
       <c r="C34">
-        <v>-0.06464049256960842</v>
+        <v>0.06310923813587675</v>
       </c>
       <c r="D34">
-        <v>0.02083016814633153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03828791439970237</v>
+      </c>
+      <c r="E34">
+        <v>0.02805068968907102</v>
+      </c>
+      <c r="F34">
+        <v>0.04105060914527194</v>
+      </c>
+      <c r="G34">
+        <v>0.07662593977930472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.07790961736137e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0001029828876076758</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.180499786489723e-05</v>
+      </c>
+      <c r="E35">
+        <v>-0.0001095767936821686</v>
+      </c>
+      <c r="F35">
+        <v>2.595099939991508e-05</v>
+      </c>
+      <c r="G35">
+        <v>5.362900894168597e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0191081448848217</v>
+        <v>0.01643494948432139</v>
       </c>
       <c r="C36">
-        <v>-0.01561445378353078</v>
+        <v>0.01306163222547489</v>
       </c>
       <c r="D36">
-        <v>0.004116323095241152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03186341698762329</v>
+      </c>
+      <c r="E36">
+        <v>0.06585783004027301</v>
+      </c>
+      <c r="F36">
+        <v>0.036417068540645</v>
+      </c>
+      <c r="G36">
+        <v>0.06616090420889342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0297463945714842</v>
+        <v>0.02360417548072122</v>
       </c>
       <c r="C38">
-        <v>-0.03159814328465455</v>
+        <v>0.02431977713912953</v>
       </c>
       <c r="D38">
-        <v>-0.01352606807928202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02498640353053075</v>
+      </c>
+      <c r="E38">
+        <v>0.06144975289722068</v>
+      </c>
+      <c r="F38">
+        <v>0.02563377163051366</v>
+      </c>
+      <c r="G38">
+        <v>0.04092807679243531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04972110402497946</v>
+        <v>0.04351855873393595</v>
       </c>
       <c r="C39">
-        <v>-0.05896984619967379</v>
+        <v>0.06151830456900818</v>
       </c>
       <c r="D39">
-        <v>0.02420465512004024</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05850926090857294</v>
+      </c>
+      <c r="E39">
+        <v>0.06122459382755263</v>
+      </c>
+      <c r="F39">
+        <v>0.05949102220988289</v>
+      </c>
+      <c r="G39">
+        <v>0.06481687021978491</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01374054951013078</v>
+        <v>0.01571754577329235</v>
       </c>
       <c r="C40">
-        <v>-0.05198486016126594</v>
+        <v>0.03888394761848117</v>
       </c>
       <c r="D40">
-        <v>0.01380310430644642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0402265313905965</v>
+      </c>
+      <c r="E40">
+        <v>0.1018948250033292</v>
+      </c>
+      <c r="F40">
+        <v>0.019151914559101</v>
+      </c>
+      <c r="G40">
+        <v>0.09382053222243905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02464943848342296</v>
+        <v>0.02087746369278649</v>
       </c>
       <c r="C41">
-        <v>-0.01317751887207067</v>
+        <v>0.00947518714778578</v>
       </c>
       <c r="D41">
-        <v>0.003627543205423323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02192807025745817</v>
+      </c>
+      <c r="E41">
+        <v>0.06774212677120697</v>
+      </c>
+      <c r="F41">
+        <v>0.0307384160514627</v>
+      </c>
+      <c r="G41">
+        <v>0.05190335994413153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0467852483740346</v>
+        <v>0.03290648672266059</v>
       </c>
       <c r="C43">
-        <v>-0.03281981099856261</v>
+        <v>0.02414788093637774</v>
       </c>
       <c r="D43">
-        <v>0.02526310181750927</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05151672713231285</v>
+      </c>
+      <c r="E43">
+        <v>0.08156986440755873</v>
+      </c>
+      <c r="F43">
+        <v>0.01826749705189499</v>
+      </c>
+      <c r="G43">
+        <v>0.07351907131384484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01920887288322088</v>
+        <v>0.01968525722946479</v>
       </c>
       <c r="C44">
-        <v>-0.06886043579506605</v>
+        <v>0.04868761050927298</v>
       </c>
       <c r="D44">
-        <v>0.002042998806658423</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04074227014523679</v>
+      </c>
+      <c r="E44">
+        <v>0.09803538363900043</v>
+      </c>
+      <c r="F44">
+        <v>0.04703710966903174</v>
+      </c>
+      <c r="G44">
+        <v>0.05106669714604987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01373207791562286</v>
+        <v>0.0130745587676453</v>
       </c>
       <c r="C46">
-        <v>-0.02430207141439983</v>
+        <v>0.02813581216954693</v>
       </c>
       <c r="D46">
-        <v>-0.007352024280511934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02408198549835369</v>
+      </c>
+      <c r="E46">
+        <v>0.07819623653599524</v>
+      </c>
+      <c r="F46">
+        <v>0.05755456116599444</v>
+      </c>
+      <c r="G46">
+        <v>0.07895651947459227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09161387545294201</v>
+        <v>0.09401168012856401</v>
       </c>
       <c r="C47">
-        <v>-0.06331199020722048</v>
+        <v>0.07690069967104367</v>
       </c>
       <c r="D47">
-        <v>-0.04442188010970081</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01785068973183706</v>
+      </c>
+      <c r="E47">
+        <v>0.07139388366360701</v>
+      </c>
+      <c r="F47">
+        <v>0.01175744908456661</v>
+      </c>
+      <c r="G47">
+        <v>0.0739290700616977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02084736055922516</v>
+        <v>0.01911660669386476</v>
       </c>
       <c r="C48">
-        <v>-0.0127650377013079</v>
+        <v>0.01502731717067037</v>
       </c>
       <c r="D48">
-        <v>-0.0116616908586372</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01939566433648457</v>
+      </c>
+      <c r="E48">
+        <v>0.08219236149842926</v>
+      </c>
+      <c r="F48">
+        <v>0.04850028148876671</v>
+      </c>
+      <c r="G48">
+        <v>0.07112640802972435</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08609124850731677</v>
+        <v>0.07377617791870396</v>
       </c>
       <c r="C50">
-        <v>-0.0792304272524402</v>
+        <v>0.07285022881547312</v>
       </c>
       <c r="D50">
-        <v>-0.03979024572631038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0009323766575973642</v>
+      </c>
+      <c r="E50">
+        <v>0.08469526490062564</v>
+      </c>
+      <c r="F50">
+        <v>-0.02106179213985088</v>
+      </c>
+      <c r="G50">
+        <v>0.07710315901973724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01494366648103958</v>
+        <v>0.01160981833604436</v>
       </c>
       <c r="C51">
-        <v>-0.04785340655719228</v>
+        <v>0.03067064284752266</v>
       </c>
       <c r="D51">
-        <v>0.0471812320037505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06478041324135989</v>
+      </c>
+      <c r="E51">
+        <v>0.06606122896448467</v>
+      </c>
+      <c r="F51">
+        <v>0.04796180398265203</v>
+      </c>
+      <c r="G51">
+        <v>0.05491775731726116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0845979180393612</v>
+        <v>0.09887026176654067</v>
       </c>
       <c r="C53">
-        <v>-0.0763663773401371</v>
+        <v>0.08354844769552726</v>
       </c>
       <c r="D53">
-        <v>-0.06728100450961291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05792349412120624</v>
+      </c>
+      <c r="E53">
+        <v>0.07891855570663017</v>
+      </c>
+      <c r="F53">
+        <v>0.01565652091537961</v>
+      </c>
+      <c r="G53">
+        <v>0.07324024029609551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03840283875912183</v>
+        <v>0.0315014229838422</v>
       </c>
       <c r="C54">
-        <v>-0.03145052244952735</v>
+        <v>0.03031770450404443</v>
       </c>
       <c r="D54">
-        <v>0.004384451747785027</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03349204107136249</v>
+      </c>
+      <c r="E54">
+        <v>0.06798495686352563</v>
+      </c>
+      <c r="F54">
+        <v>0.05355241845432958</v>
+      </c>
+      <c r="G54">
+        <v>0.08657292416549525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08042147509398641</v>
+        <v>0.0909973302201148</v>
       </c>
       <c r="C55">
-        <v>-0.05091752043279374</v>
+        <v>0.06518815281076054</v>
       </c>
       <c r="D55">
-        <v>-0.06980982617193487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05787768558781475</v>
+      </c>
+      <c r="E55">
+        <v>0.05485298109224528</v>
+      </c>
+      <c r="F55">
+        <v>-0.004421581192920752</v>
+      </c>
+      <c r="G55">
+        <v>0.05091109826547053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1537356267451428</v>
+        <v>0.15650473421182</v>
       </c>
       <c r="C56">
-        <v>-0.07853673551434094</v>
+        <v>0.09788447468534352</v>
       </c>
       <c r="D56">
-        <v>-0.06379539542105321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05174523096251849</v>
+      </c>
+      <c r="E56">
+        <v>0.04222603170624165</v>
+      </c>
+      <c r="F56">
+        <v>-0.01225016148889882</v>
+      </c>
+      <c r="G56">
+        <v>0.01964396977521497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05296828487719988</v>
+        <v>0.03523318794833646</v>
       </c>
       <c r="C58">
-        <v>-0.01483633621116306</v>
+        <v>0.02084135719304694</v>
       </c>
       <c r="D58">
-        <v>0.4695015086319962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4041675846005516</v>
+      </c>
+      <c r="E58">
+        <v>0.487714329019778</v>
+      </c>
+      <c r="F58">
+        <v>-0.3871033456320481</v>
+      </c>
+      <c r="G58">
+        <v>-0.5710410418507172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1229224787962648</v>
+        <v>0.1392944522377181</v>
       </c>
       <c r="C59">
-        <v>0.2072800803944022</v>
+        <v>-0.1935204462148346</v>
       </c>
       <c r="D59">
-        <v>0.03009020006249054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03304675598928784</v>
+      </c>
+      <c r="E59">
+        <v>0.02788043738801662</v>
+      </c>
+      <c r="F59">
+        <v>0.03109251049707935</v>
+      </c>
+      <c r="G59">
+        <v>-0.005923281430249312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2968399669769313</v>
+        <v>0.2688885482455913</v>
       </c>
       <c r="C60">
-        <v>-0.1179769192010665</v>
+        <v>0.102933942744913</v>
       </c>
       <c r="D60">
-        <v>0.2178780110140005</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2300339365496264</v>
+      </c>
+      <c r="E60">
+        <v>-0.264613768171679</v>
+      </c>
+      <c r="F60">
+        <v>-0.07202393890743171</v>
+      </c>
+      <c r="G60">
+        <v>0.05932195250322594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04781080700379683</v>
+        <v>0.04486199372062368</v>
       </c>
       <c r="C61">
-        <v>-0.05745169119311531</v>
+        <v>0.05678217330168238</v>
       </c>
       <c r="D61">
-        <v>0.02023975231277977</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04774489848026692</v>
+      </c>
+      <c r="E61">
+        <v>0.05727796876148933</v>
+      </c>
+      <c r="F61">
+        <v>0.04221873935834489</v>
+      </c>
+      <c r="G61">
+        <v>0.07907689118507648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01889433365533406</v>
+        <v>0.01843494700803325</v>
       </c>
       <c r="C63">
-        <v>-0.03388469473266383</v>
+        <v>0.03065308571682781</v>
       </c>
       <c r="D63">
-        <v>-0.01455522155374984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02259530675038293</v>
+      </c>
+      <c r="E63">
+        <v>0.07489152193343054</v>
+      </c>
+      <c r="F63">
+        <v>0.0228667576546782</v>
+      </c>
+      <c r="G63">
+        <v>0.0710548997716441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05407530301690808</v>
+        <v>0.05874860332866845</v>
       </c>
       <c r="C64">
-        <v>-0.04761691728907892</v>
+        <v>0.0580076298745224</v>
       </c>
       <c r="D64">
-        <v>0.009211036336357701</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01511747613773433</v>
+      </c>
+      <c r="E64">
+        <v>0.04905647911271428</v>
+      </c>
+      <c r="F64">
+        <v>0.04313540229478816</v>
+      </c>
+      <c r="G64">
+        <v>0.05764327607710946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07873659016738382</v>
+        <v>0.06452125488462189</v>
       </c>
       <c r="C65">
-        <v>-0.02704573977005888</v>
+        <v>0.02654182207414581</v>
       </c>
       <c r="D65">
-        <v>0.06131133973244412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09194699443791468</v>
+      </c>
+      <c r="E65">
+        <v>0.05261588546129142</v>
+      </c>
+      <c r="F65">
+        <v>-0.008904957778274419</v>
+      </c>
+      <c r="G65">
+        <v>0.008160636373068303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06274292837276667</v>
+        <v>0.05505358896841307</v>
       </c>
       <c r="C66">
-        <v>-0.07843247731260991</v>
+        <v>0.07680168083317301</v>
       </c>
       <c r="D66">
-        <v>0.04407917902809266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08223465572821781</v>
+      </c>
+      <c r="E66">
+        <v>0.07379969432968711</v>
+      </c>
+      <c r="F66">
+        <v>0.04574164692120925</v>
+      </c>
+      <c r="G66">
+        <v>0.07611507245153598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04995144819481603</v>
+        <v>0.04354951637672377</v>
       </c>
       <c r="C67">
-        <v>-0.03192038638297829</v>
+        <v>0.02853407528712956</v>
       </c>
       <c r="D67">
-        <v>-0.0232820252340183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005680317204388703</v>
+      </c>
+      <c r="E67">
+        <v>0.0377064298522744</v>
+      </c>
+      <c r="F67">
+        <v>0.01603936415760555</v>
+      </c>
+      <c r="G67">
+        <v>0.03365480889702658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1228258306154204</v>
+        <v>0.1458204844515817</v>
       </c>
       <c r="C68">
-        <v>0.283055560959414</v>
+        <v>-0.2450751083562718</v>
       </c>
       <c r="D68">
-        <v>-0.004449243553114077</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.009593789089489616</v>
+      </c>
+      <c r="E68">
+        <v>0.04744517169643577</v>
+      </c>
+      <c r="F68">
+        <v>0.002874609923853236</v>
+      </c>
+      <c r="G68">
+        <v>0.02314478046698967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09340830877917784</v>
+        <v>0.09010100943650881</v>
       </c>
       <c r="C69">
-        <v>-0.07077160086819816</v>
+        <v>0.08867582601438082</v>
       </c>
       <c r="D69">
-        <v>-0.04414188542266528</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.006927856159575315</v>
+      </c>
+      <c r="E69">
+        <v>0.0648440344165104</v>
+      </c>
+      <c r="F69">
+        <v>0.04396583153827888</v>
+      </c>
+      <c r="G69">
+        <v>0.0756018771550865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1137039334323503</v>
+        <v>0.1410993388922527</v>
       </c>
       <c r="C71">
-        <v>0.2595316930388273</v>
+        <v>-0.2452701409696723</v>
       </c>
       <c r="D71">
-        <v>0.01806384782652741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01163060799837736</v>
+      </c>
+      <c r="E71">
+        <v>0.06727828977175292</v>
+      </c>
+      <c r="F71">
+        <v>-0.00401617894001442</v>
+      </c>
+      <c r="G71">
+        <v>0.05181065122137115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1008388399569618</v>
+        <v>0.1063788088024363</v>
       </c>
       <c r="C72">
-        <v>-0.04081708836017214</v>
+        <v>0.04701249367569302</v>
       </c>
       <c r="D72">
-        <v>0.002837180719773558</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03978807035207464</v>
+      </c>
+      <c r="E72">
+        <v>0.02731279670353334</v>
+      </c>
+      <c r="F72">
+        <v>0.01595827325948722</v>
+      </c>
+      <c r="G72">
+        <v>0.09973918179070922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3788407878694064</v>
+        <v>0.3232920663519871</v>
       </c>
       <c r="C73">
-        <v>-0.05254034787066334</v>
+        <v>0.06582987984313331</v>
       </c>
       <c r="D73">
-        <v>0.4992893388820029</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4729296842098118</v>
+      </c>
+      <c r="E73">
+        <v>-0.5128843737434934</v>
+      </c>
+      <c r="F73">
+        <v>-0.2204845325593103</v>
+      </c>
+      <c r="G73">
+        <v>0.02551027987623863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.105973111017504</v>
+        <v>0.1108934544044408</v>
       </c>
       <c r="C74">
-        <v>-0.09252859936558548</v>
+        <v>0.09118457727414837</v>
       </c>
       <c r="D74">
-        <v>-0.04772409196704345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04441660191194034</v>
+      </c>
+      <c r="E74">
+        <v>0.06763650687914556</v>
+      </c>
+      <c r="F74">
+        <v>-0.01908388588148674</v>
+      </c>
+      <c r="G74">
+        <v>0.04170326603761242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2581102435930165</v>
+        <v>0.2606012594726174</v>
       </c>
       <c r="C75">
-        <v>-0.08375200120160518</v>
+        <v>0.1187089334227881</v>
       </c>
       <c r="D75">
-        <v>-0.1518056838984067</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1514800555326169</v>
+      </c>
+      <c r="E75">
+        <v>0.02165236794114045</v>
+      </c>
+      <c r="F75">
+        <v>-0.04167410393106648</v>
+      </c>
+      <c r="G75">
+        <v>-0.05269747772423326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1174272592930813</v>
+        <v>0.1302637475503927</v>
       </c>
       <c r="C76">
-        <v>-0.07731225751406551</v>
+        <v>0.08858080213290828</v>
       </c>
       <c r="D76">
-        <v>-0.07571322773483481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07359690003009002</v>
+      </c>
+      <c r="E76">
+        <v>0.08971346110750336</v>
+      </c>
+      <c r="F76">
+        <v>0.0055424429562505</v>
+      </c>
+      <c r="G76">
+        <v>0.02586573693892657</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08481257697787835</v>
+        <v>0.06977593767624998</v>
       </c>
       <c r="C77">
-        <v>-0.03763453540981144</v>
+        <v>0.05574934000711629</v>
       </c>
       <c r="D77">
-        <v>0.05703033226320035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07388835856881198</v>
+      </c>
+      <c r="E77">
+        <v>0.1050086212594719</v>
+      </c>
+      <c r="F77">
+        <v>0.1813909567949733</v>
+      </c>
+      <c r="G77">
+        <v>-0.1317845140468901</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05007265295200979</v>
+        <v>0.04937019538724548</v>
       </c>
       <c r="C78">
-        <v>-0.0393624431710811</v>
+        <v>0.05069097062608887</v>
       </c>
       <c r="D78">
-        <v>0.04137147823875476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07353741677551352</v>
+      </c>
+      <c r="E78">
+        <v>0.06743819485620473</v>
+      </c>
+      <c r="F78">
+        <v>0.04525045672951725</v>
+      </c>
+      <c r="G78">
+        <v>0.06533944945842463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0005095505925985649</v>
+        <v>0.035343046743922</v>
       </c>
       <c r="C79">
-        <v>-0.001163306500224353</v>
+        <v>0.04900599720888071</v>
       </c>
       <c r="D79">
-        <v>0.005495836464500332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08190269919332663</v>
+      </c>
+      <c r="E79">
+        <v>0.07900851200730161</v>
+      </c>
+      <c r="F79">
+        <v>-0.03270173077660079</v>
+      </c>
+      <c r="G79">
+        <v>0.02710802384921573</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04013191557094442</v>
+        <v>0.03086262183556607</v>
       </c>
       <c r="C80">
-        <v>-0.05230712536796937</v>
+        <v>0.05142361061835269</v>
       </c>
       <c r="D80">
-        <v>0.03447679330237405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04548326036297442</v>
+      </c>
+      <c r="E80">
+        <v>0.0156035390139117</v>
+      </c>
+      <c r="F80">
+        <v>0.05086167238794677</v>
+      </c>
+      <c r="G80">
+        <v>0.0003541673215564169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1458846236844042</v>
+        <v>0.143522721092152</v>
       </c>
       <c r="C81">
-        <v>-0.06772983865151354</v>
+        <v>0.08890018570897865</v>
       </c>
       <c r="D81">
-        <v>-0.1150378501194572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1179419302017277</v>
+      </c>
+      <c r="E81">
+        <v>0.06745653945182664</v>
+      </c>
+      <c r="F81">
+        <v>-0.02046381066325032</v>
+      </c>
+      <c r="G81">
+        <v>-0.02090870974975399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2066637301847302</v>
+        <v>0.2348920136090216</v>
       </c>
       <c r="C82">
-        <v>-0.08698260786369873</v>
+        <v>0.1529458864341249</v>
       </c>
       <c r="D82">
-        <v>-0.206958445457387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2497485215402727</v>
+      </c>
+      <c r="E82">
+        <v>-0.03243929354785174</v>
+      </c>
+      <c r="F82">
+        <v>0.04411670180956478</v>
+      </c>
+      <c r="G82">
+        <v>0.1047474419416147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04548099999112796</v>
+        <v>0.03109483836512302</v>
       </c>
       <c r="C83">
-        <v>-0.03213638265057284</v>
+        <v>0.04498388263057007</v>
       </c>
       <c r="D83">
-        <v>0.04421382283485464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03658803604346226</v>
+      </c>
+      <c r="E83">
+        <v>0.021108116025842</v>
+      </c>
+      <c r="F83">
+        <v>0.02513021269309317</v>
+      </c>
+      <c r="G83">
+        <v>-0.002951138590758203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0005004237417327696</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001920872130656447</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001314600865312417</v>
+      </c>
+      <c r="E84">
+        <v>0.006261718797644823</v>
+      </c>
+      <c r="F84">
+        <v>-0.002287591159541753</v>
+      </c>
+      <c r="G84">
+        <v>-0.001914541821462693</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.22042683648943</v>
+        <v>0.2045110873102426</v>
       </c>
       <c r="C85">
-        <v>-0.09209740456672701</v>
+        <v>0.1089303620651175</v>
       </c>
       <c r="D85">
-        <v>-0.1667427109030758</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1319826207324657</v>
+      </c>
+      <c r="E85">
+        <v>-0.006204179040139987</v>
+      </c>
+      <c r="F85">
+        <v>-0.10114506655685</v>
+      </c>
+      <c r="G85">
+        <v>-0.000507394800325477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01082205950724123</v>
+        <v>0.01404891415452402</v>
       </c>
       <c r="C86">
-        <v>-0.02871288265146778</v>
+        <v>0.01734882857276103</v>
       </c>
       <c r="D86">
-        <v>0.04731569895469773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07147555447816575</v>
+      </c>
+      <c r="E86">
+        <v>0.08296669687851832</v>
+      </c>
+      <c r="F86">
+        <v>0.0619579984308846</v>
+      </c>
+      <c r="G86">
+        <v>0.07084845586187763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03258593931361194</v>
+        <v>0.03148386459388695</v>
       </c>
       <c r="C87">
-        <v>-0.003606610898043333</v>
+        <v>0.01428533266321826</v>
       </c>
       <c r="D87">
-        <v>0.08009389586158075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09831793354993532</v>
+      </c>
+      <c r="E87">
+        <v>0.1310656910497453</v>
+      </c>
+      <c r="F87">
+        <v>0.0709592351743408</v>
+      </c>
+      <c r="G87">
+        <v>-0.01089537576867497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1092740425261697</v>
+        <v>0.09326813128940999</v>
       </c>
       <c r="C88">
-        <v>-0.08228139441949958</v>
+        <v>0.06703158502151316</v>
       </c>
       <c r="D88">
-        <v>-0.0169516094757722</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01540853396816674</v>
+      </c>
+      <c r="E88">
+        <v>0.05247062263401917</v>
+      </c>
+      <c r="F88">
+        <v>0.03326702982374479</v>
+      </c>
+      <c r="G88">
+        <v>0.03734096767143626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.17451483274997</v>
+        <v>0.2108779004918048</v>
       </c>
       <c r="C89">
-        <v>0.3839111608546818</v>
+        <v>-0.385711739503644</v>
       </c>
       <c r="D89">
-        <v>-0.02474905368322975</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.00782234188583371</v>
+      </c>
+      <c r="E89">
+        <v>0.07855810530798818</v>
+      </c>
+      <c r="F89">
+        <v>0.08207525260829091</v>
+      </c>
+      <c r="G89">
+        <v>-0.0002958549660011931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1676997656704649</v>
+        <v>0.1916223639675717</v>
       </c>
       <c r="C90">
-        <v>0.3335513912674498</v>
+        <v>-0.3110372950245198</v>
       </c>
       <c r="D90">
-        <v>-0.02998411872318786</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0113234541311407</v>
+      </c>
+      <c r="E90">
+        <v>0.05833634415770777</v>
+      </c>
+      <c r="F90">
+        <v>0.02088917072018031</v>
+      </c>
+      <c r="G90">
+        <v>0.01328201304091993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1918819126078094</v>
+        <v>0.188573485128037</v>
       </c>
       <c r="C91">
-        <v>-0.1195625635158941</v>
+        <v>0.1389581926972078</v>
       </c>
       <c r="D91">
-        <v>-0.1397760787714622</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1260808045337049</v>
+      </c>
+      <c r="E91">
+        <v>0.05858881405601566</v>
+      </c>
+      <c r="F91">
+        <v>-0.01178336347941499</v>
+      </c>
+      <c r="G91">
+        <v>-0.01461486446113907</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1610350227081334</v>
+        <v>0.1787955922823505</v>
       </c>
       <c r="C92">
-        <v>0.3010697795688018</v>
+        <v>-0.3017337500071773</v>
       </c>
       <c r="D92">
-        <v>-0.01590383588386619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009173118992728515</v>
+      </c>
+      <c r="E92">
+        <v>0.06637577970049691</v>
+      </c>
+      <c r="F92">
+        <v>0.04670369053578698</v>
+      </c>
+      <c r="G92">
+        <v>0.02689801481587577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1867265296785505</v>
+        <v>0.2108795045010341</v>
       </c>
       <c r="C93">
-        <v>0.3371557516138693</v>
+        <v>-0.3214684196482321</v>
       </c>
       <c r="D93">
-        <v>-0.03765620512070735</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01623012350504005</v>
+      </c>
+      <c r="E93">
+        <v>0.04394930434107636</v>
+      </c>
+      <c r="F93">
+        <v>-0.007878766289473076</v>
+      </c>
+      <c r="G93">
+        <v>0.03729955134400078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3544476937008829</v>
+        <v>0.3496468610931641</v>
       </c>
       <c r="C94">
-        <v>-0.1205945527104335</v>
+        <v>0.1703452811053068</v>
       </c>
       <c r="D94">
-        <v>-0.4229844417096948</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4076941386554617</v>
+      </c>
+      <c r="E94">
+        <v>-0.01965567782485141</v>
+      </c>
+      <c r="F94">
+        <v>-0.08004474901616736</v>
+      </c>
+      <c r="G94">
+        <v>-0.4305627611092863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1215232617923104</v>
+        <v>0.08972543194000826</v>
       </c>
       <c r="C95">
-        <v>-0.04601338037421396</v>
+        <v>0.05439817569937395</v>
       </c>
       <c r="D95">
-        <v>0.1965485346704725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.190563016671542</v>
+      </c>
+      <c r="E95">
+        <v>-0.1473183315906354</v>
+      </c>
+      <c r="F95">
+        <v>0.7919687797690441</v>
+      </c>
+      <c r="G95">
+        <v>-0.4313518343756628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1884670136726044</v>
+        <v>0.1854580202290377</v>
       </c>
       <c r="C98">
-        <v>-0.03106646234844751</v>
+        <v>0.04829419419201395</v>
       </c>
       <c r="D98">
-        <v>0.1905673183965662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1948069691931472</v>
+      </c>
+      <c r="E98">
+        <v>-0.1577560233482663</v>
+      </c>
+      <c r="F98">
+        <v>-0.090270507556191</v>
+      </c>
+      <c r="G98">
+        <v>0.07205515712158565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009579813223979786</v>
+        <v>0.008187314764237933</v>
       </c>
       <c r="C101">
-        <v>-0.03045905698970871</v>
+        <v>0.0275256835073111</v>
       </c>
       <c r="D101">
-        <v>-0.005286828457066052</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02566871361337755</v>
+      </c>
+      <c r="E101">
+        <v>0.06544451889876939</v>
+      </c>
+      <c r="F101">
+        <v>0.0523108026134176</v>
+      </c>
+      <c r="G101">
+        <v>0.08758128067792599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1223274937752819</v>
+        <v>0.1260423672935242</v>
       </c>
       <c r="C102">
-        <v>-0.06243786354755074</v>
+        <v>0.09655581339707141</v>
       </c>
       <c r="D102">
-        <v>-0.05499173408338962</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0615319861055319</v>
+      </c>
+      <c r="E102">
+        <v>-0.004701659032944077</v>
+      </c>
+      <c r="F102">
+        <v>0.02214256425595249</v>
+      </c>
+      <c r="G102">
+        <v>-0.003339612730673328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
